--- a/Project Management/Idea Status Report.xlsx
+++ b/Project Management/Idea Status Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="MemberList">[1]!MemberList</definedName>
     <definedName name="ProjectStatus">Project!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Effort Calculation</t>
   </si>
@@ -70,13 +70,25 @@
   </si>
   <si>
     <t>Idea Rejected</t>
+  </si>
+  <si>
+    <t>Service @ Doorstep</t>
+  </si>
+  <si>
+    <t>I-15-002</t>
+  </si>
+  <si>
+    <t>Brij Mohan Sharma</t>
+  </si>
+  <si>
+    <t>28.10.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,15 +315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -320,6 +323,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +399,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -531,7 +543,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -566,7 +577,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,12 +752,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -755,8 +765,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -772,7 +782,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -788,7 +798,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -804,7 +814,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -820,7 +830,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -836,7 +846,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -852,7 +862,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -868,7 +878,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -884,88 +894,88 @@
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18">
+      <c r="G11" s="19"/>
+      <c r="H11" s="15">
         <f>COUNTIF(Project!E:E,"OPEN")+COUNTIF(Project!E:E,"WIP")</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18">
+      <c r="G12" s="19"/>
+      <c r="H12" s="15">
         <f>COUNTIF(Project!E:E,"Converted to Project")</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18">
+      <c r="G13" s="19"/>
+      <c r="H13" s="15">
         <f>COUNTIF(Project!E:E,"Rejected")</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -981,7 +991,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -997,7 +1007,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1013,7 +1023,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="8"/>
@@ -1028,7 +1038,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1043,7 +1053,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1059,7 +1069,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1091,12 +1101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="A9:G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1105,9 +1117,10 @@
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1151,16 +1164,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1169,7 +1194,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1178,7 +1203,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1187,7 +1212,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1196,7 +1221,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>

--- a/Project Management/Idea Status Report.xlsx
+++ b/Project Management/Idea Status Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
@@ -17,12 +17,12 @@
     <definedName name="MemberList">[1]!MemberList</definedName>
     <definedName name="ProjectStatus">Project!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Effort Calculation</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Completion(%)</t>
-  </si>
-  <si>
-    <t>Arpan Kar</t>
   </si>
   <si>
     <t>Date of last Updation</t>
@@ -87,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,7 +396,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -543,6 +540,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -577,6 +575,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,12 +751,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -765,8 +764,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -782,7 +781,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -798,7 +797,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -814,7 +813,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -830,7 +829,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -846,7 +845,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -862,7 +861,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -878,7 +877,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -894,7 +893,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -912,13 +911,13 @@
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="15">
@@ -933,13 +932,13 @@
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="15">
@@ -954,13 +953,13 @@
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="15">
@@ -975,7 +974,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -991,7 +990,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1007,7 +1006,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1023,7 +1022,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="8"/>
@@ -1038,7 +1037,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1053,7 +1052,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1069,7 +1068,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1101,14 +1100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="A9:G9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1120,7 +1119,7 @@
     <col min="8" max="8" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -1140,52 +1139,52 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1194,7 +1193,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1203,7 +1202,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1212,7 +1211,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1221,7 +1220,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
